--- a/data/trans_orig/P42A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>23405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15801</v>
+        <v>15359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32834</v>
+        <v>32247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2432067063733742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1641919690899299</v>
+        <v>0.1595905288359906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3411797922695236</v>
+        <v>0.3350824669747351</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>21035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13098</v>
+        <v>13558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29501</v>
+        <v>30244</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2185784816199982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1360978521067648</v>
+        <v>0.1408828392948811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3065475928535212</v>
+        <v>0.3142612325707476</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>23817</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16416</v>
+        <v>15909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33215</v>
+        <v>34050</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2474822514886229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.170581454065779</v>
+        <v>0.1653094267732288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3451355990666168</v>
+        <v>0.3538177589086568</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>17887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11042</v>
+        <v>10707</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26192</v>
+        <v>26881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1858660020158189</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1147345071701841</v>
+        <v>0.1112580918203691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2721644251328236</v>
+        <v>0.2793212429410287</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>10092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5294</v>
+        <v>5168</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18365</v>
+        <v>18082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1048665585021858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05500543963843769</v>
+        <v>0.05369984389066008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1908273953599812</v>
+        <v>0.1878943124468234</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>29574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21331</v>
+        <v>20598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41396</v>
+        <v>40022</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1896259786135809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1367743888032196</v>
+        <v>0.1320742743309276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2654273334092133</v>
+        <v>0.2566217257760554</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>27496</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18477</v>
+        <v>18630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38027</v>
+        <v>38433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1763044288675785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1184715347275742</v>
+        <v>0.1194513090509362</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2438294644447452</v>
+        <v>0.2464306830331821</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>38023</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28972</v>
+        <v>27037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50840</v>
+        <v>48498</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2438016971963705</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1857668946603143</v>
+        <v>0.1733611027041118</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3259854927680638</v>
+        <v>0.3109674343779655</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>34753</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26547</v>
+        <v>25261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45580</v>
+        <v>46049</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2228339292901605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1702201940666189</v>
+        <v>0.161971521835264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2922591433294213</v>
+        <v>0.2952651255793434</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>26113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16586</v>
+        <v>17999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36263</v>
+        <v>36662</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1674339660323096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1063513329387134</v>
+        <v>0.1154078842375956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.232518269519107</v>
+        <v>0.2350729864658377</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>32765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24259</v>
+        <v>24282</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42673</v>
+        <v>42543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3413042803582393</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2527000355865146</v>
+        <v>0.2529401275519024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4445206373851642</v>
+        <v>0.4431624595672465</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>15303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9093</v>
+        <v>8958</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24251</v>
+        <v>23700</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1594131752673806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09471925020640218</v>
+        <v>0.09331469075110813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2526230435868154</v>
+        <v>0.2468774778345584</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>18961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11920</v>
+        <v>12668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26764</v>
+        <v>28714</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1975186764142645</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1241740314908607</v>
+        <v>0.1319619956593071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2787969338388628</v>
+        <v>0.2991107991433921</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>14002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7919</v>
+        <v>8630</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22793</v>
+        <v>22456</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1458589903156314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08248748268357767</v>
+        <v>0.08989814457791517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2374335535382292</v>
+        <v>0.2339223141525333</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>14967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8657</v>
+        <v>8932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22778</v>
+        <v>23173</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1559048776444841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0901769392651334</v>
+        <v>0.09304624679439812</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2372743951954771</v>
+        <v>0.2413920021905663</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>20871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13686</v>
+        <v>13989</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30725</v>
+        <v>30816</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.166589561751977</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1092450567217886</v>
+        <v>0.1116609831500728</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2452473368676426</v>
+        <v>0.2459754043125791</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>23219</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15930</v>
+        <v>15899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>32254</v>
+        <v>32995</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1853305147065193</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1271561313866228</v>
+        <v>0.126903316915356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2574543751605622</v>
+        <v>0.2633658115547624</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>22583</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14902</v>
+        <v>14901</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32255</v>
+        <v>31279</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1802596350520758</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.11894795039299</v>
+        <v>0.1189391897785701</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2574592985087076</v>
+        <v>0.2496699839650124</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>30871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21972</v>
+        <v>22018</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41032</v>
+        <v>40989</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2464088215713377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1753801704289895</v>
+        <v>0.175749337061618</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3275167875730954</v>
+        <v>0.3271707626135061</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>27739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>19338</v>
+        <v>19575</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38688</v>
+        <v>37104</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2214114669180902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1543592960356471</v>
+        <v>0.156246499759687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3088040748145844</v>
+        <v>0.2961640902239848</v>
       </c>
     </row>
     <row r="27">
@@ -1336,19 +1336,19 @@
         <v>14353</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8622</v>
+        <v>8104</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21478</v>
+        <v>21376</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2486413414677599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1493535285757648</v>
+        <v>0.1403859425409127</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3720715021785169</v>
+        <v>0.3702938277020912</v>
       </c>
     </row>
     <row r="29">
@@ -1365,19 +1365,19 @@
         <v>6332</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2930</v>
+        <v>2351</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13069</v>
+        <v>11934</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1096897651614339</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05074936815472174</v>
+        <v>0.04073005346842237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2263973665247747</v>
+        <v>0.2067418948888083</v>
       </c>
     </row>
     <row r="30">
@@ -1394,19 +1394,19 @@
         <v>19789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12960</v>
+        <v>13460</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27414</v>
+        <v>28213</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3428118751253851</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2245166430311815</v>
+        <v>0.2331734611553209</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4749069451102045</v>
+        <v>0.4887386671332603</v>
       </c>
     </row>
     <row r="31">
@@ -1423,19 +1423,19 @@
         <v>9906</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5229</v>
+        <v>4958</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16866</v>
+        <v>16624</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1716016815596825</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0905813341508204</v>
+        <v>0.0858970869830978</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2921700327184328</v>
+        <v>0.287975583584807</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         <v>7346</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3122</v>
+        <v>3149</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13152</v>
+        <v>14305</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1272553366857386</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05408071613457269</v>
+        <v>0.05455931697354309</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2278306491628368</v>
+        <v>0.2478094754905059</v>
       </c>
     </row>
     <row r="33">
@@ -1514,19 +1514,19 @@
         <v>12417</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7298</v>
+        <v>6997</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21153</v>
+        <v>19926</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1349143996795116</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07929668602015849</v>
+        <v>0.07602359211262237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2298384012585714</v>
+        <v>0.2165018579743082</v>
       </c>
     </row>
     <row r="35">
@@ -1543,19 +1543,19 @@
         <v>27657</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19420</v>
+        <v>18973</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>36846</v>
+        <v>37253</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3005025198777297</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2110090232676925</v>
+        <v>0.2061529480851478</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4003524432869638</v>
+        <v>0.4047721211794834</v>
       </c>
     </row>
     <row r="36">
@@ -1572,19 +1572,19 @@
         <v>21221</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13440</v>
+        <v>14093</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29409</v>
+        <v>30160</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2305723244407104</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1460343646389523</v>
+        <v>0.153121160554443</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3195455500984655</v>
+        <v>0.3276971775097666</v>
       </c>
     </row>
     <row r="37">
@@ -1601,19 +1601,19 @@
         <v>16351</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9961</v>
+        <v>10159</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24170</v>
+        <v>24467</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1776572722504623</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1082305830682883</v>
+        <v>0.1103840523404403</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2626220261661462</v>
+        <v>0.2658487178640943</v>
       </c>
     </row>
     <row r="38">
@@ -1630,19 +1630,19 @@
         <v>14390</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>8447</v>
+        <v>8158</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>22824</v>
+        <v>22093</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1563534837515861</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09178185813987078</v>
+        <v>0.0886412339692301</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2479916875611124</v>
+        <v>0.2400503635458154</v>
       </c>
     </row>
     <row r="39">
@@ -1692,19 +1692,19 @@
         <v>52028</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>41322</v>
+        <v>38257</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>65146</v>
+        <v>64597</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2526790115751472</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.200684210350208</v>
+        <v>0.1857983855720221</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3163848166819534</v>
+        <v>0.3137189245847029</v>
       </c>
     </row>
     <row r="41">
@@ -1721,19 +1721,19 @@
         <v>46265</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36123</v>
+        <v>35954</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>59835</v>
+        <v>60054</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2246907575940752</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1754335350262297</v>
+        <v>0.1746128663682141</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.290594261976015</v>
+        <v>0.2916566818450853</v>
       </c>
     </row>
     <row r="42">
@@ -1750,19 +1750,19 @@
         <v>45363</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>34648</v>
+        <v>33847</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>57705</v>
+        <v>57251</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2203110179205432</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1682730945987195</v>
+        <v>0.1643792780317944</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2802481457074076</v>
+        <v>0.2780464137405486</v>
       </c>
     </row>
     <row r="43">
@@ -1779,19 +1779,19 @@
         <v>32505</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>22580</v>
+        <v>23365</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44452</v>
+        <v>44353</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1578614734820581</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1096615710191712</v>
+        <v>0.1134725260089124</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2158854739634914</v>
+        <v>0.2154064744339577</v>
       </c>
     </row>
     <row r="44">
@@ -1808,19 +1808,19 @@
         <v>29745</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>19945</v>
+        <v>20483</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>39227</v>
+        <v>40712</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1444577394281763</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09686355924968365</v>
+        <v>0.09947851395970976</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1905087116363796</v>
+        <v>0.1977212460518809</v>
       </c>
     </row>
     <row r="45">
@@ -1870,19 +1870,19 @@
         <v>58120</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>44423</v>
+        <v>44320</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>73557</v>
+        <v>72901</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.223561695506838</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1708761340361286</v>
+        <v>0.1704788403052452</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2829409408654681</v>
+        <v>0.280418307048826</v>
       </c>
     </row>
     <row r="47">
@@ -1899,19 +1899,19 @@
         <v>37344</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>27459</v>
+        <v>27668</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>50323</v>
+        <v>50414</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1436438958865929</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1056208868350608</v>
+        <v>0.1064262995211801</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1935710358633527</v>
+        <v>0.1939202819557667</v>
       </c>
     </row>
     <row r="48">
@@ -1928,19 +1928,19 @@
         <v>63147</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>49301</v>
+        <v>49638</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>78342</v>
+        <v>77377</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2428964919555473</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1896395379287853</v>
+        <v>0.1909337419107602</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3013457330843584</v>
+        <v>0.2976326403680021</v>
       </c>
     </row>
     <row r="49">
@@ -1957,19 +1957,19 @@
         <v>57699</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>44118</v>
+        <v>44767</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>72497</v>
+        <v>71767</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2219401357778555</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1697016327505907</v>
+        <v>0.1721985452619422</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2788629340193348</v>
+        <v>0.276054238093014</v>
       </c>
     </row>
     <row r="50">
@@ -1986,19 +1986,19 @@
         <v>43665</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>32316</v>
+        <v>32968</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>57818</v>
+        <v>57214</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1679577808731663</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1243048104973655</v>
+        <v>0.1268135098770965</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2223983514568471</v>
+        <v>0.2200739910699733</v>
       </c>
     </row>
     <row r="51">
@@ -2048,19 +2048,19 @@
         <v>243533</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>213059</v>
+        <v>218962</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>269907</v>
+        <v>272386</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2236057494378264</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1956260292164843</v>
+        <v>0.2010458575576597</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2478223654382526</v>
+        <v>0.2500977936017225</v>
       </c>
     </row>
     <row r="53">
@@ -2077,19 +2077,19 @@
         <v>204651</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>178701</v>
+        <v>178380</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>232849</v>
+        <v>229932</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.187905491912048</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1640791271294593</v>
+        <v>0.1637845663331707</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2137960253236673</v>
+        <v>0.2111176720255953</v>
       </c>
     </row>
     <row r="54">
@@ -2106,19 +2106,19 @@
         <v>252904</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>226864</v>
+        <v>225383</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>280524</v>
+        <v>280929</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2322107671915421</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2083012535456598</v>
+        <v>0.2069410734909823</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2575700178494156</v>
+        <v>0.2579424372001012</v>
       </c>
     </row>
     <row r="55">
@@ -2135,19 +2135,19 @@
         <v>213973</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>186089</v>
+        <v>189253</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>242049</v>
+        <v>241217</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1964644534671008</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1708620159824804</v>
+        <v>0.1737679702142075</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2222434497779749</v>
+        <v>0.2214795663153391</v>
       </c>
     </row>
     <row r="56">
@@ -2164,19 +2164,19 @@
         <v>174055</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>151254</v>
+        <v>150981</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>202901</v>
+        <v>198500</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1598135379914828</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1388779340566831</v>
+        <v>0.1386267893467761</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1862990693324026</v>
+        <v>0.1822578544695352</v>
       </c>
     </row>
     <row r="57">
@@ -2348,19 +2348,19 @@
         <v>13729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8089</v>
+        <v>7445</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23712</v>
+        <v>23671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05494995455234977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03237555821774048</v>
+        <v>0.02979808058281713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09490383234381317</v>
+        <v>0.09474240285428361</v>
       </c>
     </row>
     <row r="5">
@@ -2377,19 +2377,19 @@
         <v>55404</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42997</v>
+        <v>42723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70373</v>
+        <v>70611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2217495325432132</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1720911117533735</v>
+        <v>0.1709929896490477</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2816622657583903</v>
+        <v>0.2826152491671104</v>
       </c>
     </row>
     <row r="6">
@@ -2406,19 +2406,19 @@
         <v>63997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50497</v>
+        <v>49412</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79212</v>
+        <v>79050</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2561426789623529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2021077276697813</v>
+        <v>0.1977675817682361</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3170391190839568</v>
+        <v>0.3163893956233453</v>
       </c>
     </row>
     <row r="7">
@@ -2435,19 +2435,19 @@
         <v>73174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58670</v>
+        <v>58250</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88394</v>
+        <v>89486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.292870488414521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2348208342248372</v>
+        <v>0.2331418439094997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3537883073652366</v>
+        <v>0.3581598112220223</v>
       </c>
     </row>
     <row r="8">
@@ -2464,19 +2464,19 @@
         <v>43546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31583</v>
+        <v>32367</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57652</v>
+        <v>57494</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1742873455275631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1264083644966603</v>
+        <v>0.1295445739499069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2307482618849998</v>
+        <v>0.2301137673686053</v>
       </c>
     </row>
     <row r="9">
@@ -2526,19 +2526,19 @@
         <v>37623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27593</v>
+        <v>26708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50554</v>
+        <v>49342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07934619635039286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05819262791258093</v>
+        <v>0.05632745235123112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1066167421117445</v>
+        <v>0.1040610184330489</v>
       </c>
     </row>
     <row r="11">
@@ -2555,19 +2555,19 @@
         <v>121017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103413</v>
+        <v>103132</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141512</v>
+        <v>142342</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.25522210920305</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.218095121436489</v>
+        <v>0.2175022742696736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2984463629312155</v>
+        <v>0.3001958933453999</v>
       </c>
     </row>
     <row r="12">
@@ -2584,19 +2584,19 @@
         <v>131559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111078</v>
+        <v>110513</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>152658</v>
+        <v>153074</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2774543617544696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2342607064945935</v>
+        <v>0.2330687747972528</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3219522414304877</v>
+        <v>0.3228296117622421</v>
       </c>
     </row>
     <row r="13">
@@ -2613,19 +2613,19 @@
         <v>103405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87561</v>
+        <v>86868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122657</v>
+        <v>124221</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2180787498229515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1846646164994031</v>
+        <v>0.1832021694240802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2586818281869435</v>
+        <v>0.2619802938253984</v>
       </c>
     </row>
     <row r="14">
@@ -2642,19 +2642,19 @@
         <v>80560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65152</v>
+        <v>63472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98952</v>
+        <v>98090</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1698985828691361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1374050034132002</v>
+        <v>0.1338603113384763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2086885903496529</v>
+        <v>0.2068708417225372</v>
       </c>
     </row>
     <row r="15">
@@ -2704,19 +2704,19 @@
         <v>22431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14237</v>
+        <v>14770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32827</v>
+        <v>33741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07728920880603257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04905781057417891</v>
+        <v>0.05089334850741822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1131120482813298</v>
+        <v>0.1162616661141622</v>
       </c>
     </row>
     <row r="17">
@@ -2733,19 +2733,19 @@
         <v>57328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44366</v>
+        <v>43688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72935</v>
+        <v>72979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1975328022339926</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.152872325376607</v>
+        <v>0.1505344998386199</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2513102274356249</v>
+        <v>0.2514638132441254</v>
       </c>
     </row>
     <row r="18">
@@ -2762,19 +2762,19 @@
         <v>95567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78480</v>
+        <v>78940</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112778</v>
+        <v>113096</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3292922106725968</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2704178751970761</v>
+        <v>0.2720038259723107</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3885985566338884</v>
+        <v>0.3896929480834295</v>
       </c>
     </row>
     <row r="19">
@@ -2791,19 +2791,19 @@
         <v>60126</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47590</v>
+        <v>45993</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76000</v>
+        <v>75389</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2071744812697263</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1639814050404536</v>
+        <v>0.158478815080748</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.261872587972501</v>
+        <v>0.2597653686036594</v>
       </c>
     </row>
     <row r="20">
@@ -2820,19 +2820,19 @@
         <v>54767</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41277</v>
+        <v>41762</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69248</v>
+        <v>70643</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1887112970176517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1422268835651587</v>
+        <v>0.1438985511530911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2386063103167649</v>
+        <v>0.243414203551754</v>
       </c>
     </row>
     <row r="21">
@@ -2882,19 +2882,19 @@
         <v>37896</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26410</v>
+        <v>27983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50590</v>
+        <v>51643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1155411937790553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08052149140517822</v>
+        <v>0.08531735843790764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1542440744522174</v>
+        <v>0.1574550756158511</v>
       </c>
     </row>
     <row r="23">
@@ -2911,19 +2911,19 @@
         <v>66882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52195</v>
+        <v>54029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82001</v>
+        <v>81991</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2039165005156496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1591376836605437</v>
+        <v>0.1647301910919339</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2500132204354014</v>
+        <v>0.2499841985210387</v>
       </c>
     </row>
     <row r="24">
@@ -2940,19 +2940,19 @@
         <v>91746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75634</v>
+        <v>73552</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109759</v>
+        <v>106775</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2797256929810409</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2306008879875928</v>
+        <v>0.2242531201222794</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3346454054288581</v>
+        <v>0.3255470634883673</v>
       </c>
     </row>
     <row r="25">
@@ -2969,19 +2969,19 @@
         <v>70061</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56012</v>
+        <v>54659</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85687</v>
+        <v>85813</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.213608297408709</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1707747487222502</v>
+        <v>0.1666519202633452</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2612508518901941</v>
+        <v>0.2616376902463439</v>
       </c>
     </row>
     <row r="26">
@@ -2998,19 +2998,19 @@
         <v>61402</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>48027</v>
+        <v>48630</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>76408</v>
+        <v>78067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1872083153155452</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1464311010042181</v>
+        <v>0.1482697535651903</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2329626257989236</v>
+        <v>0.2380188570227545</v>
       </c>
     </row>
     <row r="27">
@@ -3060,19 +3060,19 @@
         <v>17820</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10725</v>
+        <v>10848</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26500</v>
+        <v>27852</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09468462823664346</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05698605193040944</v>
+        <v>0.05763911919933599</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1408046855157916</v>
+        <v>0.1479861023238706</v>
       </c>
     </row>
     <row r="29">
@@ -3089,19 +3089,19 @@
         <v>37838</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27504</v>
+        <v>27621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49449</v>
+        <v>49804</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2010445882418528</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1461379504302258</v>
+        <v>0.1467591231947581</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2627349885960062</v>
+        <v>0.264621560426707</v>
       </c>
     </row>
     <row r="30">
@@ -3118,19 +3118,19 @@
         <v>55303</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42525</v>
+        <v>43832</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67853</v>
+        <v>69792</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2938410107778042</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2259485600404825</v>
+        <v>0.2328910995254694</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3605223770948538</v>
+        <v>0.3708272305515635</v>
       </c>
     </row>
     <row r="31">
@@ -3147,19 +3147,19 @@
         <v>45396</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>34517</v>
+        <v>33378</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57961</v>
+        <v>58885</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2412042173951756</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1833965954704426</v>
+        <v>0.177349779965275</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3079659101228094</v>
+        <v>0.3128722746787367</v>
       </c>
     </row>
     <row r="32">
@@ -3176,19 +3176,19 @@
         <v>31849</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22258</v>
+        <v>23087</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43174</v>
+        <v>44615</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1692255553485239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1182627436999235</v>
+        <v>0.1226702729960617</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2293985544986741</v>
+        <v>0.2370506878806457</v>
       </c>
     </row>
     <row r="33">
@@ -3238,19 +3238,19 @@
         <v>26384</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17983</v>
+        <v>17165</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>38706</v>
+        <v>36637</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.109397109191992</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07456521032802781</v>
+        <v>0.07117164641999102</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1604886081763434</v>
+        <v>0.1519101718213092</v>
       </c>
     </row>
     <row r="35">
@@ -3267,19 +3267,19 @@
         <v>63081</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>50908</v>
+        <v>50629</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>78356</v>
+        <v>77081</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2615572638570127</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2110814339372131</v>
+        <v>0.2099271126639748</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3248898048472037</v>
+        <v>0.3196061533252038</v>
       </c>
     </row>
     <row r="36">
@@ -3296,19 +3296,19 @@
         <v>94592</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77724</v>
+        <v>79009</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109966</v>
+        <v>108986</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3922127429035277</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3222708843533981</v>
+        <v>0.327597076357704</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.455957226662892</v>
+        <v>0.4518955719435262</v>
       </c>
     </row>
     <row r="37">
@@ -3325,19 +3325,19 @@
         <v>30555</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20856</v>
+        <v>21486</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>43401</v>
+        <v>42939</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1266923240196417</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0864777019673461</v>
+        <v>0.08908653144548347</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1799540486266327</v>
+        <v>0.1780410665979102</v>
       </c>
     </row>
     <row r="38">
@@ -3354,19 +3354,19 @@
         <v>26563</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>18000</v>
+        <v>17882</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38794</v>
+        <v>37496</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1101405600278259</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07463222034091277</v>
+        <v>0.0741460092519749</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.160853899117813</v>
+        <v>0.1554696741057564</v>
       </c>
     </row>
     <row r="39">
@@ -3416,19 +3416,19 @@
         <v>58606</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>45795</v>
+        <v>43612</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>75968</v>
+        <v>75229</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.09464861978711651</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07395958235268218</v>
+        <v>0.07043343012850467</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1226885365876196</v>
+        <v>0.1214949828298576</v>
       </c>
     </row>
     <row r="41">
@@ -3445,19 +3445,19 @@
         <v>146097</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>124842</v>
+        <v>125201</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>168076</v>
+        <v>167922</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2359472303774872</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2016205959557321</v>
+        <v>0.2022005994769288</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2714436387584236</v>
+        <v>0.2711954199192538</v>
       </c>
     </row>
     <row r="42">
@@ -3474,19 +3474,19 @@
         <v>176160</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>154191</v>
+        <v>153458</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>202111</v>
+        <v>202074</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2844992054856783</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2490189748874534</v>
+        <v>0.2478355970666171</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3264100724525404</v>
+        <v>0.3263510062660158</v>
       </c>
     </row>
     <row r="43">
@@ -3503,19 +3503,19 @@
         <v>121988</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>102319</v>
+        <v>103489</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>143811</v>
+        <v>143028</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1970122528062523</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1652461215952085</v>
+        <v>0.1671354378522928</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2322564500505655</v>
+        <v>0.2309908129832293</v>
       </c>
     </row>
     <row r="44">
@@ -3532,19 +3532,19 @@
         <v>116342</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>97611</v>
+        <v>97767</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>141153</v>
+        <v>136984</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1878926915434658</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1576417620319077</v>
+        <v>0.15789419505177</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2279628180597634</v>
+        <v>0.2212301019925305</v>
       </c>
     </row>
     <row r="45">
@@ -3594,19 +3594,19 @@
         <v>115709</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>93818</v>
+        <v>98000</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>136023</v>
+        <v>137625</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1673632341113147</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1356991111889452</v>
+        <v>0.1417480898398926</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1967445681705405</v>
+        <v>0.1990620912352701</v>
       </c>
     </row>
     <row r="47">
@@ -3623,19 +3623,19 @@
         <v>128432</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>108827</v>
+        <v>107760</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>149933</v>
+        <v>150362</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1857649442846612</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1574080935300441</v>
+        <v>0.1558649309227139</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2168654648671119</v>
+        <v>0.2174849812084511</v>
       </c>
     </row>
     <row r="48">
@@ -3652,19 +3652,19 @@
         <v>205020</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>182534</v>
+        <v>181079</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>230617</v>
+        <v>231334</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2965427028056919</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2640189355086813</v>
+        <v>0.2619154312781057</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.333566633886944</v>
+        <v>0.3346043592792747</v>
       </c>
     </row>
     <row r="49">
@@ -3681,19 +3681,19 @@
         <v>153402</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>133281</v>
+        <v>132248</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>176770</v>
+        <v>177037</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2218824717406477</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1927787441289235</v>
+        <v>0.1912845354117513</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2556816809895208</v>
+        <v>0.2560677776239739</v>
       </c>
     </row>
     <row r="50">
@@ -3710,19 +3710,19 @@
         <v>88804</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>72436</v>
+        <v>71626</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>107540</v>
+        <v>107068</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1284466470576844</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1047716906084846</v>
+        <v>0.1036004517868636</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1555476549077806</v>
+        <v>0.1548638932320418</v>
       </c>
     </row>
     <row r="51">
@@ -3772,19 +3772,19 @@
         <v>330198</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>297421</v>
+        <v>298027</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>362760</v>
+        <v>364463</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1071321161933864</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.09649761256214809</v>
+        <v>0.09669411142677206</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1176967057638618</v>
+        <v>0.1182491425858152</v>
       </c>
     </row>
     <row r="53">
@@ -3801,19 +3801,19 @@
         <v>676078</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>629624</v>
+        <v>628721</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>727636</v>
+        <v>726170</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2193521197678285</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2042801094111307</v>
+        <v>0.2039871978651028</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2360800321951792</v>
+        <v>0.2356042934197708</v>
       </c>
     </row>
     <row r="54">
@@ -3830,19 +3830,19 @@
         <v>913943</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>860959</v>
+        <v>860167</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>968451</v>
+        <v>962845</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2965269608970301</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.279336341955127</v>
+        <v>0.2790795618674173</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3142119309487671</v>
+        <v>0.3123931849250232</v>
       </c>
     </row>
     <row r="55">
@@ -3859,19 +3859,19 @@
         <v>658107</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>616310</v>
+        <v>614174</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>711632</v>
+        <v>708124</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2135213857618726</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.199960660168763</v>
+        <v>0.1992676125309082</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2308874645802152</v>
+        <v>0.2297492635114562</v>
       </c>
     </row>
     <row r="56">
@@ -3888,19 +3888,19 @@
         <v>503832</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>459399</v>
+        <v>457238</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>546745</v>
+        <v>546355</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1634674173798825</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1490511700581091</v>
+        <v>0.1483497936600063</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1773903860912801</v>
+        <v>0.1772636565736027</v>
       </c>
     </row>
     <row r="57">
@@ -4072,19 +4072,19 @@
         <v>7817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3350</v>
+        <v>3373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14411</v>
+        <v>15525</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.032642078377101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01399027538484335</v>
+        <v>0.01408582194608209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06017628694312593</v>
+        <v>0.06482748383367673</v>
       </c>
     </row>
     <row r="5">
@@ -4101,19 +4101,19 @@
         <v>67114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52639</v>
+        <v>53504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81401</v>
+        <v>82819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2802398633495566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2198001864471142</v>
+        <v>0.2234101123308374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3398989256525335</v>
+        <v>0.345821698665055</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>68815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54576</v>
+        <v>55503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84279</v>
+        <v>84109</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2873445880684161</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2278869062333088</v>
+        <v>0.2317599472501371</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3519175317726548</v>
+        <v>0.3512080833719678</v>
       </c>
     </row>
     <row r="7">
@@ -4159,19 +4159,19 @@
         <v>56682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44587</v>
+        <v>44619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70385</v>
+        <v>72247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2366811549527982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.186178370239119</v>
+        <v>0.1863110343384532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2939019821394384</v>
+        <v>0.3016763622007238</v>
       </c>
     </row>
     <row r="8">
@@ -4188,19 +4188,19 @@
         <v>39058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27783</v>
+        <v>28517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50729</v>
+        <v>51349</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1630923152521281</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1160111023055608</v>
+        <v>0.1190765210106737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2118254207133521</v>
+        <v>0.2144154343586875</v>
       </c>
     </row>
     <row r="9">
@@ -4250,19 +4250,19 @@
         <v>31574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21236</v>
+        <v>21679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44645</v>
+        <v>45021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07253299738417014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04878392159676473</v>
+        <v>0.04980216145807925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1025579648715714</v>
+        <v>0.1034224229509249</v>
       </c>
     </row>
     <row r="11">
@@ -4279,19 +4279,19 @@
         <v>94853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79235</v>
+        <v>77462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113513</v>
+        <v>113473</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2178971281905338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1820204954808164</v>
+        <v>0.1779477845718895</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2607636612690882</v>
+        <v>0.2606706835204851</v>
       </c>
     </row>
     <row r="12">
@@ -4308,19 +4308,19 @@
         <v>193356</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173453</v>
+        <v>173409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>214051</v>
+        <v>214398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4441810881680199</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.398459255628407</v>
+        <v>0.3983576486215326</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4917216807284457</v>
+        <v>0.4925179778782575</v>
       </c>
     </row>
     <row r="13">
@@ -4337,19 +4337,19 @@
         <v>71579</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56462</v>
+        <v>56907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88548</v>
+        <v>88649</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1644333485208089</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1297057393003551</v>
+        <v>0.1307264635322662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2034125861473436</v>
+        <v>0.2036466810678537</v>
       </c>
     </row>
     <row r="14">
@@ -4366,19 +4366,19 @@
         <v>43947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32128</v>
+        <v>31546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57606</v>
+        <v>58342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1009554377364672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07380511728066153</v>
+        <v>0.07246705261015075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1323336766159099</v>
+        <v>0.1340235253884655</v>
       </c>
     </row>
     <row r="15">
@@ -4428,19 +4428,19 @@
         <v>11292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5915</v>
+        <v>5670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19739</v>
+        <v>19359</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03922769215452276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02054715456359126</v>
+        <v>0.01969826566847564</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06857320107814673</v>
+        <v>0.06725159041861638</v>
       </c>
     </row>
     <row r="17">
@@ -4457,19 +4457,19 @@
         <v>66505</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52626</v>
+        <v>51330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83222</v>
+        <v>83186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2310359387882605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1828227298226654</v>
+        <v>0.1783187659865997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2891109687248569</v>
+        <v>0.2889869995266715</v>
       </c>
     </row>
     <row r="18">
@@ -4486,19 +4486,19 @@
         <v>105363</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89261</v>
+        <v>89656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122401</v>
+        <v>121795</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3660282782048318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.310090124191436</v>
+        <v>0.3114623657086745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.425218635100664</v>
+        <v>0.423110817999058</v>
       </c>
     </row>
     <row r="19">
@@ -4515,19 +4515,19 @@
         <v>59203</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47574</v>
+        <v>46430</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72711</v>
+        <v>73368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2056703949376616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1652690212878933</v>
+        <v>0.1612979366328312</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2525975913363421</v>
+        <v>0.2548782570433807</v>
       </c>
     </row>
     <row r="20">
@@ -4544,19 +4544,19 @@
         <v>45492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34232</v>
+        <v>34780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59946</v>
+        <v>59455</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1580376959147234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1189202147369642</v>
+        <v>0.1208230238210695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2082514791108513</v>
+        <v>0.2065454000103933</v>
       </c>
     </row>
     <row r="21">
@@ -4606,19 +4606,19 @@
         <v>41674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30477</v>
+        <v>30258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54142</v>
+        <v>54678</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1274213003683615</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09318608418165752</v>
+        <v>0.09251730240858232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1655455890276036</v>
+        <v>0.167182657510021</v>
       </c>
     </row>
     <row r="23">
@@ -4635,19 +4635,19 @@
         <v>89200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>73445</v>
+        <v>74442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108603</v>
+        <v>107769</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2727366916632077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2245640267757791</v>
+        <v>0.227614980195571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3320637966131996</v>
+        <v>0.329513915034688</v>
       </c>
     </row>
     <row r="24">
@@ -4664,19 +4664,19 @@
         <v>102333</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>86283</v>
+        <v>85777</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119989</v>
+        <v>120909</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3128923957501051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2638196366598985</v>
+        <v>0.262270471340448</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3668793728655304</v>
+        <v>0.3696921846021065</v>
       </c>
     </row>
     <row r="25">
@@ -4693,19 +4693,19 @@
         <v>45915</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34176</v>
+        <v>34432</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60541</v>
+        <v>60308</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1403905748247045</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1044972867445406</v>
+        <v>0.1052799671941036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1851109904146529</v>
+        <v>0.1843967328908511</v>
       </c>
     </row>
     <row r="26">
@@ -4722,19 +4722,19 @@
         <v>47933</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34993</v>
+        <v>36332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62033</v>
+        <v>63389</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1465590373936211</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1069954884054346</v>
+        <v>0.1110886731462994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1896713118244478</v>
+        <v>0.1938168797953129</v>
       </c>
     </row>
     <row r="27">
@@ -4784,19 +4784,19 @@
         <v>22030</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14129</v>
+        <v>14441</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31026</v>
+        <v>32349</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1129013824835413</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07241306902085758</v>
+        <v>0.07401074064493668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1590068602729048</v>
+        <v>0.1657863935777263</v>
       </c>
     </row>
     <row r="29">
@@ -4813,19 +4813,19 @@
         <v>68015</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>55508</v>
+        <v>55816</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82211</v>
+        <v>82659</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3485767600815399</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2844762735640424</v>
+        <v>0.2860555037521383</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4213300640588616</v>
+        <v>0.4236292470162567</v>
       </c>
     </row>
     <row r="30">
@@ -4842,19 +4842,19 @@
         <v>74841</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62920</v>
+        <v>62500</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>88654</v>
+        <v>89539</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3835582799158584</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3224631743844706</v>
+        <v>0.3203127564119034</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4543537923503854</v>
+        <v>0.4588887025955676</v>
       </c>
     </row>
     <row r="31">
@@ -4871,19 +4871,19 @@
         <v>23360</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>16221</v>
+        <v>15201</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33781</v>
+        <v>33053</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1197183319273682</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08313512654145686</v>
+        <v>0.07790542897647043</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1731287331873079</v>
+        <v>0.1693985540987939</v>
       </c>
     </row>
     <row r="32">
@@ -4900,19 +4900,19 @@
         <v>6877</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2713</v>
+        <v>2768</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13179</v>
+        <v>13712</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03524524559169229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01390185712180872</v>
+        <v>0.01418718305298555</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06754322828109798</v>
+        <v>0.07027360659968199</v>
       </c>
     </row>
     <row r="33">
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8380</v>
+        <v>8108</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0126203623615554</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03902349142771318</v>
+        <v>0.03775863881305058</v>
       </c>
     </row>
     <row r="35">
@@ -4991,19 +4991,19 @@
         <v>73677</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>58794</v>
+        <v>61204</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>89289</v>
+        <v>88983</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.34311336226072</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2738058850681009</v>
+        <v>0.2850258616680311</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4158185438915708</v>
+        <v>0.4143960105754919</v>
       </c>
     </row>
     <row r="36">
@@ -5020,19 +5020,19 @@
         <v>70419</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57494</v>
+        <v>56928</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85526</v>
+        <v>85334</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3279410875520494</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2677511162671336</v>
+        <v>0.2651125219450175</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.398295383811787</v>
+        <v>0.3974005834419584</v>
       </c>
     </row>
     <row r="37">
@@ -5049,19 +5049,19 @@
         <v>29392</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20495</v>
+        <v>20907</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41945</v>
+        <v>42069</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1368767771106795</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09544549453666314</v>
+        <v>0.09736503945652028</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1953397966216934</v>
+        <v>0.1959154841168005</v>
       </c>
     </row>
     <row r="38">
@@ -5078,19 +5078,19 @@
         <v>38533</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>28207</v>
+        <v>28083</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>51102</v>
+        <v>52387</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1794484107149956</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1313585433628591</v>
+        <v>0.1307843103344972</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2379805122806271</v>
+        <v>0.2439647910248344</v>
       </c>
     </row>
     <row r="39">
@@ -5140,19 +5140,19 @@
         <v>84101</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>68359</v>
+        <v>67281</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>104652</v>
+        <v>103124</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1338006994887843</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1087551979738031</v>
+        <v>0.1070411418747902</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1664957006822343</v>
+        <v>0.1640651938187119</v>
       </c>
     </row>
     <row r="41">
@@ -5169,19 +5169,19 @@
         <v>107496</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>90131</v>
+        <v>88170</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>129044</v>
+        <v>127610</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1710205043740974</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1433929812122454</v>
+        <v>0.1402743845354107</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2053028588129277</v>
+        <v>0.2030204562780146</v>
       </c>
     </row>
     <row r="42">
@@ -5198,19 +5198,19 @@
         <v>221843</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>201234</v>
+        <v>197796</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>247415</v>
+        <v>247248</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.352940382292629</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.320152243747684</v>
+        <v>0.3146832721547306</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3936247615743096</v>
+        <v>0.3933579538707125</v>
       </c>
     </row>
     <row r="43">
@@ -5227,19 +5227,19 @@
         <v>133409</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>113243</v>
+        <v>115079</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>154771</v>
+        <v>155958</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2122464272283886</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1801642051637336</v>
+        <v>0.1830840640255222</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2462324959005599</v>
+        <v>0.2481218840553945</v>
       </c>
     </row>
     <row r="44">
@@ -5256,19 +5256,19 @@
         <v>81707</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>65396</v>
+        <v>65563</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>101041</v>
+        <v>101019</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1299919866161006</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1040418639601529</v>
+        <v>0.104307163816802</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.160750295897205</v>
+        <v>0.1607161289284937</v>
       </c>
     </row>
     <row r="45">
@@ -5318,19 +5318,19 @@
         <v>50704</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>36819</v>
+        <v>37223</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>68375</v>
+        <v>66576</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.06913294347803887</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05020184281876337</v>
+        <v>0.05075294344032506</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09322716843625438</v>
+        <v>0.09077446997889869</v>
       </c>
     </row>
     <row r="47">
@@ -5347,19 +5347,19 @@
         <v>178628</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>153428</v>
+        <v>153719</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>203008</v>
+        <v>204763</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2435537271675502</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2091941624680612</v>
+        <v>0.209590959945637</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.276794636916515</v>
+        <v>0.2791880631033187</v>
       </c>
     </row>
     <row r="48">
@@ -5376,19 +5376,19 @@
         <v>269722</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>244350</v>
+        <v>242063</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>299888</v>
+        <v>297457</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3677574317055886</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3331638111607894</v>
+        <v>0.330045296442657</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4088882597906044</v>
+        <v>0.405573791376794</v>
       </c>
     </row>
     <row r="49">
@@ -5405,19 +5405,19 @@
         <v>144135</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>124144</v>
+        <v>121737</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>169834</v>
+        <v>165876</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1965243394329423</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1692665008611792</v>
+        <v>0.1659843642844252</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2315628820944297</v>
+        <v>0.2261663407467434</v>
       </c>
     </row>
     <row r="50">
@@ -5434,19 +5434,19 @@
         <v>90234</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>73162</v>
+        <v>73461</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>109435</v>
+        <v>110278</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1230315582158801</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0997538403171442</v>
+        <v>0.1001619470000326</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1492107576067803</v>
+        <v>0.1503605193773634</v>
       </c>
     </row>
     <row r="51">
@@ -5496,19 +5496,19 @@
         <v>251902</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>222447</v>
+        <v>218569</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>285118</v>
+        <v>281318</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08227946747956678</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07265869987971119</v>
+        <v>0.07139183590683056</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09312887829273776</v>
+        <v>0.09188769782663807</v>
       </c>
     </row>
     <row r="53">
@@ -5525,19 +5525,19 @@
         <v>745487</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>699674</v>
+        <v>697684</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>799706</v>
+        <v>796430</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2435007801341333</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2285368438813383</v>
+        <v>0.227886955409819</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2612107608017628</v>
+        <v>0.2601404947780203</v>
       </c>
     </row>
     <row r="54">
@@ -5554,19 +5554,19 @@
         <v>1106692</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1052178</v>
+        <v>1053070</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1158685</v>
+        <v>1161394</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3614823686558609</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3436762773314881</v>
+        <v>0.3439678908292254</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3784651375663259</v>
+        <v>0.3793499211062945</v>
       </c>
     </row>
     <row r="55">
@@ -5583,19 +5583,19 @@
         <v>563676</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>519469</v>
+        <v>524392</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>609130</v>
+        <v>608549</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1841152038946165</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1696757910370633</v>
+        <v>0.1712839991743548</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1989621420737963</v>
+        <v>0.1987724251272373</v>
       </c>
     </row>
     <row r="56">
@@ -5612,19 +5612,19 @@
         <v>393782</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>356478</v>
+        <v>360078</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>429906</v>
+        <v>433966</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1286221798358224</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1164377490517321</v>
+        <v>0.1176135936108796</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.140421570610855</v>
+        <v>0.1417479016224981</v>
       </c>
     </row>
     <row r="57">
@@ -5796,19 +5796,19 @@
         <v>19704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13892</v>
+        <v>13747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27768</v>
+        <v>26951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1021944628399722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07205031614637079</v>
+        <v>0.07129989721625909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1440183686976924</v>
+        <v>0.1397810390366831</v>
       </c>
     </row>
     <row r="5">
@@ -5825,19 +5825,19 @@
         <v>53699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44209</v>
+        <v>45056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65037</v>
+        <v>65144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.278505937932246</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2292846634083612</v>
+        <v>0.2336819610415836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.337307554346546</v>
+        <v>0.3378630032577529</v>
       </c>
     </row>
     <row r="6">
@@ -5854,19 +5854,19 @@
         <v>60892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51464</v>
+        <v>51403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70812</v>
+        <v>71283</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3158100596265036</v>
+        <v>0.3158100596265037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2669166064128599</v>
+        <v>0.2665993738792505</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3672604146302828</v>
+        <v>0.369705072777691</v>
       </c>
     </row>
     <row r="7">
@@ -5883,19 +5883,19 @@
         <v>27754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20519</v>
+        <v>20611</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37858</v>
+        <v>37252</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1439439828242742</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1064215989099307</v>
+        <v>0.1068948610723538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1963486766319973</v>
+        <v>0.1932062706001461</v>
       </c>
     </row>
     <row r="8">
@@ -5912,19 +5912,19 @@
         <v>30762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23591</v>
+        <v>24065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39779</v>
+        <v>39341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1595455567770039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1223547812112459</v>
+        <v>0.1248097180984128</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2063089351617544</v>
+        <v>0.2040394412431324</v>
       </c>
     </row>
     <row r="9">
@@ -5974,19 +5974,19 @@
         <v>37336</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28513</v>
+        <v>28341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48277</v>
+        <v>48574</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09692419796919084</v>
+        <v>0.09692419796919083</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07401901468623751</v>
+        <v>0.07357279607263578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.125326638835101</v>
+        <v>0.1260962986072655</v>
       </c>
     </row>
     <row r="11">
@@ -6003,19 +6003,19 @@
         <v>182601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165014</v>
+        <v>165750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201231</v>
+        <v>198792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.474028251357998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4283721169099634</v>
+        <v>0.4302833716462413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.522390798454843</v>
+        <v>0.516061242755079</v>
       </c>
     </row>
     <row r="12">
@@ -6032,19 +6032,19 @@
         <v>94034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78356</v>
+        <v>78104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>112484</v>
+        <v>111324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2441105286472763</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2034115938861494</v>
+        <v>0.2027555310570287</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2920073277862706</v>
+        <v>0.2889960890516752</v>
       </c>
     </row>
     <row r="13">
@@ -6061,19 +6061,19 @@
         <v>36531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27105</v>
+        <v>27221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47501</v>
+        <v>48153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09483333752012667</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0703631662869245</v>
+        <v>0.07066594136521119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1233115747008602</v>
+        <v>0.1250030586059119</v>
       </c>
     </row>
     <row r="14">
@@ -6090,19 +6090,19 @@
         <v>34709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25858</v>
+        <v>25515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45899</v>
+        <v>45305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09010368450540827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06712722545125235</v>
+        <v>0.06623678376620468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1191523356904973</v>
+        <v>0.1176115842037463</v>
       </c>
     </row>
     <row r="15">
@@ -6152,19 +6152,19 @@
         <v>20374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14309</v>
+        <v>14193</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29023</v>
+        <v>28258</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09950425651308273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06988377367089565</v>
+        <v>0.06931444692271196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.141743692439709</v>
+        <v>0.1380069380627773</v>
       </c>
     </row>
     <row r="17">
@@ -6181,19 +6181,19 @@
         <v>77496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66185</v>
+        <v>65624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>87991</v>
+        <v>88247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3784736451370987</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3232319340124399</v>
+        <v>0.3204931332679011</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4297287510444677</v>
+        <v>0.4309779065307909</v>
       </c>
     </row>
     <row r="18">
@@ -6210,19 +6210,19 @@
         <v>39379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30684</v>
+        <v>30374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48087</v>
+        <v>49878</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1923170686361124</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1498521004272765</v>
+        <v>0.1483424591479331</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2348469630401729</v>
+        <v>0.2435940291600818</v>
       </c>
     </row>
     <row r="19">
@@ -6239,19 +6239,19 @@
         <v>30898</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23983</v>
+        <v>23076</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40251</v>
+        <v>39111</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1508987563210611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1171265099453544</v>
+        <v>0.1126987403775267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1965792351575279</v>
+        <v>0.1910075348078314</v>
       </c>
     </row>
     <row r="20">
@@ -6268,19 +6268,19 @@
         <v>36612</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27669</v>
+        <v>27916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47906</v>
+        <v>47946</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.178806273392645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.135130623336178</v>
+        <v>0.1363376007612403</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2339619425188242</v>
+        <v>0.2341565797370163</v>
       </c>
     </row>
     <row r="21">
@@ -6330,19 +6330,19 @@
         <v>31894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23290</v>
+        <v>23030</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43547</v>
+        <v>42397</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1129981824450083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08251648393063675</v>
+        <v>0.08159595316963185</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1542842129566936</v>
+        <v>0.1502093938795917</v>
       </c>
     </row>
     <row r="23">
@@ -6359,19 +6359,19 @@
         <v>98236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84050</v>
+        <v>84603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>113806</v>
+        <v>113950</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3480475316405618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2977839376382279</v>
+        <v>0.2997450820908347</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4032108060475</v>
+        <v>0.403719023186931</v>
       </c>
     </row>
     <row r="24">
@@ -6388,19 +6388,19 @@
         <v>75816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61763</v>
+        <v>62407</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90734</v>
+        <v>89290</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2686131510288038</v>
+        <v>0.2686131510288039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2188223780761999</v>
+        <v>0.2211067342191956</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.321467498825181</v>
+        <v>0.3163517645056489</v>
       </c>
     </row>
     <row r="25">
@@ -6417,19 +6417,19 @@
         <v>36314</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26713</v>
+        <v>26630</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50186</v>
+        <v>49714</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1286598100193364</v>
+        <v>0.1286598100193365</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0946432123446353</v>
+        <v>0.09434803501546324</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1778074527387172</v>
+        <v>0.176134022490624</v>
       </c>
     </row>
     <row r="26">
@@ -6446,19 +6446,19 @@
         <v>39990</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30389</v>
+        <v>30430</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52752</v>
+        <v>53273</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1416813248662896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1076661673773096</v>
+        <v>0.1078120299853709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1868997367001819</v>
+        <v>0.188742876079893</v>
       </c>
     </row>
     <row r="27">
@@ -6508,19 +6508,19 @@
         <v>2653</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1094</v>
+        <v>1140</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5021</v>
+        <v>5229</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.01862453452381899</v>
+        <v>0.018624534523819</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007677549541203769</v>
+        <v>0.007999384008168567</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03524443271228352</v>
+        <v>0.03670512351527447</v>
       </c>
     </row>
     <row r="29">
@@ -6537,19 +6537,19 @@
         <v>44299</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37069</v>
+        <v>37657</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>51949</v>
+        <v>52431</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3109744358522093</v>
+        <v>0.3109744358522092</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2602200055685307</v>
+        <v>0.2643490525389348</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3646766642538956</v>
+        <v>0.3680625996902682</v>
       </c>
     </row>
     <row r="30">
@@ -6566,19 +6566,19 @@
         <v>55769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47828</v>
+        <v>47087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64285</v>
+        <v>63964</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3914945520527859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3357527993798945</v>
+        <v>0.3305492375641679</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4512795027825791</v>
+        <v>0.4490259629498499</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         <v>30702</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24252</v>
+        <v>24793</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37581</v>
+        <v>37843</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2155265148850839</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1702494695721228</v>
+        <v>0.1740475776522215</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2638169158133422</v>
+        <v>0.2656543157973305</v>
       </c>
     </row>
     <row r="32">
@@ -6624,19 +6624,19 @@
         <v>9029</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5611</v>
+        <v>5325</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14129</v>
+        <v>14109</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06337996268610205</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03938564848696106</v>
+        <v>0.0373844981538262</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09918317395559342</v>
+        <v>0.09904760482271983</v>
       </c>
     </row>
     <row r="33">
@@ -6686,19 +6686,19 @@
         <v>13009</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7687</v>
+        <v>7892</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20811</v>
+        <v>20590</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.08479126500434553</v>
+        <v>0.08479126500434556</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05010542874572797</v>
+        <v>0.05144261242311832</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1356500386042024</v>
+        <v>0.1342076399371435</v>
       </c>
     </row>
     <row r="35">
@@ -6715,19 +6715,19 @@
         <v>53049</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44505</v>
+        <v>45335</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>61510</v>
+        <v>61489</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3457807094238943</v>
+        <v>0.3457807094238944</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2900870611007721</v>
+        <v>0.2954991689238977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4009271093190346</v>
+        <v>0.4007915574515509</v>
       </c>
     </row>
     <row r="36">
@@ -6744,19 +6744,19 @@
         <v>35446</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27743</v>
+        <v>28587</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44959</v>
+        <v>44535</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2310422798830343</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1808321364096784</v>
+        <v>0.1863357639626009</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2930468975980621</v>
+        <v>0.2902815035001453</v>
       </c>
     </row>
     <row r="37">
@@ -6773,19 +6773,19 @@
         <v>35200</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27957</v>
+        <v>27749</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>43546</v>
+        <v>42964</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2294392127002086</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1822245906666581</v>
+        <v>0.1808731200140235</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2838396842389086</v>
+        <v>0.2800428887073296</v>
       </c>
     </row>
     <row r="38">
@@ -6802,19 +6802,19 @@
         <v>16714</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11377</v>
+        <v>11524</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24269</v>
+        <v>23233</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1089465329885172</v>
+        <v>0.1089465329885171</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07415464400233969</v>
+        <v>0.07511171743759132</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.158187223049915</v>
+        <v>0.1514332859311701</v>
       </c>
     </row>
     <row r="39">
@@ -6864,19 +6864,19 @@
         <v>11562</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6541</v>
+        <v>6555</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>18854</v>
+        <v>19385</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02490677291027521</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01409035685128192</v>
+        <v>0.01412007198843171</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04061326918242695</v>
+        <v>0.04175738616975217</v>
       </c>
     </row>
     <row r="41">
@@ -6893,19 +6893,19 @@
         <v>116543</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>101409</v>
+        <v>100718</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>133878</v>
+        <v>132385</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.2510479263627871</v>
+        <v>0.2510479263627872</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2184480448468052</v>
+        <v>0.2169586269904102</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2883911507115564</v>
+        <v>0.2851732883441767</v>
       </c>
     </row>
     <row r="42">
@@ -6922,19 +6922,19 @@
         <v>119293</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>102964</v>
+        <v>102976</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>136401</v>
+        <v>136652</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2569729594809578</v>
+        <v>0.2569729594809577</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2217971124223273</v>
+        <v>0.2218238542437486</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2938253992952124</v>
+        <v>0.2943658869860105</v>
       </c>
     </row>
     <row r="43">
@@ -6951,19 +6951,19 @@
         <v>121191</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>105425</v>
+        <v>104245</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>139151</v>
+        <v>138966</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2610608723065196</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2270998729222477</v>
+        <v>0.2245571403363386</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2997490123366162</v>
+        <v>0.2993497074546463</v>
       </c>
     </row>
     <row r="44">
@@ -6980,19 +6980,19 @@
         <v>95636</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>80260</v>
+        <v>81367</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>115684</v>
+        <v>114342</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2060114689394603</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1728906391139729</v>
+        <v>0.1752746747174401</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2491989917761508</v>
+        <v>0.2463083349333519</v>
       </c>
     </row>
     <row r="45">
@@ -7042,19 +7042,19 @@
         <v>83625</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>70393</v>
+        <v>70241</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>99499</v>
+        <v>98073</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1643609485005667</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1383539528247486</v>
+        <v>0.1380560611934644</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1955608199257291</v>
+        <v>0.1927585709178362</v>
       </c>
     </row>
     <row r="47">
@@ -7071,19 +7071,19 @@
         <v>109298</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>95311</v>
+        <v>93893</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>125380</v>
+        <v>125438</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2148220045661272</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.187330048446185</v>
+        <v>0.1845440675685914</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.246430579251358</v>
+        <v>0.2465441106223457</v>
       </c>
     </row>
     <row r="48">
@@ -7100,19 +7100,19 @@
         <v>161376</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>144777</v>
+        <v>143432</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>180022</v>
+        <v>178787</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.3171786827530015</v>
+        <v>0.3171786827530014</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2845529363835604</v>
+        <v>0.2819095419689143</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3538268654949146</v>
+        <v>0.3514000502706148</v>
       </c>
     </row>
     <row r="49">
@@ -7129,19 +7129,19 @@
         <v>125927</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>110058</v>
+        <v>109683</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>145260</v>
+        <v>142303</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2475056583335909</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2163145126540063</v>
+        <v>0.2155783821243771</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2855022920218518</v>
+        <v>0.2796921826933564</v>
       </c>
     </row>
     <row r="50">
@@ -7158,19 +7158,19 @@
         <v>28560</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>20197</v>
+        <v>19481</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>40447</v>
+        <v>39413</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05613270584671382</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03969557826470174</v>
+        <v>0.03828919952968039</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07949649873195894</v>
+        <v>0.07746570246574573</v>
       </c>
     </row>
     <row r="51">
@@ -7220,19 +7220,19 @@
         <v>220157</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>197659</v>
+        <v>196523</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>247337</v>
+        <v>247394</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.0943296855266658</v>
+        <v>0.09432968552666579</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.08468990126222016</v>
+        <v>0.0842033166682067</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1059751332744925</v>
+        <v>0.1059996150624868</v>
       </c>
     </row>
     <row r="53">
@@ -7249,19 +7249,19 @@
         <v>735222</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>699977</v>
+        <v>699813</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>772026</v>
+        <v>772572</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3150167358046325</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2999155552650362</v>
+        <v>0.2998453584015212</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3307862497189725</v>
+        <v>0.331019921702254</v>
       </c>
     </row>
     <row r="54">
@@ -7278,19 +7278,19 @@
         <v>642005</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>607301</v>
+        <v>601823</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>678465</v>
+        <v>677065</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2750767011262019</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2602070593647915</v>
+        <v>0.2578598864355015</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2906986625387818</v>
+        <v>0.2900988196474337</v>
       </c>
     </row>
     <row r="55">
@@ -7307,19 +7307,19 @@
         <v>444518</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>414214</v>
+        <v>414078</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>477017</v>
+        <v>478429</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.1904603119254628</v>
+        <v>0.1904603119254627</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1774760491180288</v>
+        <v>0.1774178548888052</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2043852762083815</v>
+        <v>0.2049900011774123</v>
       </c>
     </row>
     <row r="56">
@@ -7336,19 +7336,19 @@
         <v>292011</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>266783</v>
+        <v>264903</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>321140</v>
+        <v>322947</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.125116565617037</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.114307298913412</v>
+        <v>0.1135017928199125</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1375971859602055</v>
+        <v>0.1383713095034413</v>
       </c>
     </row>
     <row r="57">
